--- a/data/193/193_series.xlsx
+++ b/data/193/193_series.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\INTLINE\data\193\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\INTLINE\data\193\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{220FA305-55F3-46AA-A5FA-F18F14CA23DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -26282,7 +26283,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9">
     <font>
       <sz val="12"/>
@@ -26414,7 +26415,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -26691,7 +26692,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -26827,7 +26828,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AC28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -27776,14 +27777,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K1046"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G887" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="G309" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J795" sqref="J795"/>
+      <selection pane="bottomRight" activeCell="J324" sqref="J324"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -62532,15 +62533,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L376"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="H200" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J378" sqref="J378"/>
+      <selection pane="bottomRight" activeCell="J212" sqref="J212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -62597,7 +62597,7 @@
         <v>4059</v>
       </c>
     </row>
-    <row r="2" spans="1:12" hidden="1">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>2948</v>
       </c>
@@ -62630,7 +62630,7 @@
       </c>
       <c r="L2"/>
     </row>
-    <row r="3" spans="1:12" hidden="1">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>2951</v>
       </c>
@@ -62663,7 +62663,7 @@
       </c>
       <c r="L3"/>
     </row>
-    <row r="4" spans="1:12" hidden="1">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>2954</v>
       </c>
@@ -62696,7 +62696,7 @@
       </c>
       <c r="L4"/>
     </row>
-    <row r="5" spans="1:12" hidden="1">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>2957</v>
       </c>
@@ -62729,7 +62729,7 @@
       </c>
       <c r="L5"/>
     </row>
-    <row r="6" spans="1:12" hidden="1">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>2960</v>
       </c>
@@ -62762,7 +62762,7 @@
       </c>
       <c r="L6"/>
     </row>
-    <row r="7" spans="1:12" hidden="1">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>2963</v>
       </c>
@@ -62795,7 +62795,7 @@
       </c>
       <c r="L7"/>
     </row>
-    <row r="8" spans="1:12" hidden="1">
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>2966</v>
       </c>
@@ -62828,7 +62828,7 @@
       </c>
       <c r="L8"/>
     </row>
-    <row r="9" spans="1:12" hidden="1">
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>2969</v>
       </c>
@@ -62861,7 +62861,7 @@
       </c>
       <c r="L9"/>
     </row>
-    <row r="10" spans="1:12" hidden="1">
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>2972</v>
       </c>
@@ -62894,7 +62894,7 @@
       </c>
       <c r="L10"/>
     </row>
-    <row r="11" spans="1:12" hidden="1">
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>5824</v>
       </c>
@@ -62927,7 +62927,7 @@
       </c>
       <c r="L11"/>
     </row>
-    <row r="12" spans="1:12" hidden="1">
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>5825</v>
       </c>
@@ -62960,7 +62960,7 @@
       </c>
       <c r="L12"/>
     </row>
-    <row r="13" spans="1:12" hidden="1">
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>2979</v>
       </c>
@@ -62993,7 +62993,7 @@
       </c>
       <c r="L13"/>
     </row>
-    <row r="14" spans="1:12" hidden="1">
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>2982</v>
       </c>
@@ -63026,7 +63026,7 @@
       </c>
       <c r="L14"/>
     </row>
-    <row r="15" spans="1:12" hidden="1">
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>2985</v>
       </c>
@@ -63059,7 +63059,7 @@
       </c>
       <c r="L15"/>
     </row>
-    <row r="16" spans="1:12" hidden="1">
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>2988</v>
       </c>
@@ -63092,7 +63092,7 @@
       </c>
       <c r="L16"/>
     </row>
-    <row r="17" spans="1:12" hidden="1">
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>2991</v>
       </c>
@@ -63125,7 +63125,7 @@
       </c>
       <c r="L17"/>
     </row>
-    <row r="18" spans="1:12" hidden="1">
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>2994</v>
       </c>
@@ -63158,7 +63158,7 @@
       </c>
       <c r="L18"/>
     </row>
-    <row r="19" spans="1:12" hidden="1">
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>2997</v>
       </c>
@@ -63191,7 +63191,7 @@
       </c>
       <c r="L19"/>
     </row>
-    <row r="20" spans="1:12" hidden="1">
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>3000</v>
       </c>
@@ -63224,7 +63224,7 @@
       </c>
       <c r="L20"/>
     </row>
-    <row r="21" spans="1:12" hidden="1">
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>5826</v>
       </c>
@@ -63257,7 +63257,7 @@
       </c>
       <c r="L21"/>
     </row>
-    <row r="22" spans="1:12" hidden="1">
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>5827</v>
       </c>
@@ -63290,7 +63290,7 @@
       </c>
       <c r="L22"/>
     </row>
-    <row r="23" spans="1:12" hidden="1">
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>3008</v>
       </c>
@@ -63323,7 +63323,7 @@
       </c>
       <c r="L23"/>
     </row>
-    <row r="24" spans="1:12" hidden="1">
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>3011</v>
       </c>
@@ -63356,7 +63356,7 @@
       </c>
       <c r="L24"/>
     </row>
-    <row r="25" spans="1:12" hidden="1">
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>3015</v>
       </c>
@@ -63389,7 +63389,7 @@
       </c>
       <c r="L25"/>
     </row>
-    <row r="26" spans="1:12" hidden="1">
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
         <v>3018</v>
       </c>
@@ -63422,7 +63422,7 @@
       </c>
       <c r="L26"/>
     </row>
-    <row r="27" spans="1:12" hidden="1">
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
         <v>3021</v>
       </c>
@@ -63455,7 +63455,7 @@
       </c>
       <c r="L27"/>
     </row>
-    <row r="28" spans="1:12" hidden="1">
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
         <v>3024</v>
       </c>
@@ -63488,7 +63488,7 @@
       </c>
       <c r="L28"/>
     </row>
-    <row r="29" spans="1:12" hidden="1">
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
         <v>3027</v>
       </c>
@@ -63521,7 +63521,7 @@
       </c>
       <c r="L29"/>
     </row>
-    <row r="30" spans="1:12" hidden="1">
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
         <v>3030</v>
       </c>
@@ -63554,7 +63554,7 @@
       </c>
       <c r="L30"/>
     </row>
-    <row r="31" spans="1:12" hidden="1">
+    <row r="31" spans="1:12">
       <c r="A31" t="s">
         <v>5828</v>
       </c>
@@ -63587,7 +63587,7 @@
       </c>
       <c r="L31"/>
     </row>
-    <row r="32" spans="1:12" hidden="1">
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
         <v>5829</v>
       </c>
@@ -63620,7 +63620,7 @@
       </c>
       <c r="L32"/>
     </row>
-    <row r="33" spans="1:12" hidden="1">
+    <row r="33" spans="1:12">
       <c r="A33" t="s">
         <v>3037</v>
       </c>
@@ -63653,7 +63653,7 @@
       </c>
       <c r="L33"/>
     </row>
-    <row r="34" spans="1:12" hidden="1">
+    <row r="34" spans="1:12">
       <c r="A34" t="s">
         <v>3040</v>
       </c>
@@ -63686,7 +63686,7 @@
       </c>
       <c r="L34"/>
     </row>
-    <row r="35" spans="1:12" hidden="1">
+    <row r="35" spans="1:12">
       <c r="A35" t="s">
         <v>3043</v>
       </c>
@@ -63719,7 +63719,7 @@
       </c>
       <c r="L35"/>
     </row>
-    <row r="36" spans="1:12" hidden="1">
+    <row r="36" spans="1:12">
       <c r="A36" t="s">
         <v>3046</v>
       </c>
@@ -63752,7 +63752,7 @@
       </c>
       <c r="L36"/>
     </row>
-    <row r="37" spans="1:12" hidden="1">
+    <row r="37" spans="1:12">
       <c r="A37" t="s">
         <v>3049</v>
       </c>
@@ -63785,7 +63785,7 @@
       </c>
       <c r="L37"/>
     </row>
-    <row r="38" spans="1:12" hidden="1">
+    <row r="38" spans="1:12">
       <c r="A38" t="s">
         <v>3052</v>
       </c>
@@ -63818,7 +63818,7 @@
       </c>
       <c r="L38"/>
     </row>
-    <row r="39" spans="1:12" hidden="1">
+    <row r="39" spans="1:12">
       <c r="A39" t="s">
         <v>3055</v>
       </c>
@@ -63851,7 +63851,7 @@
       </c>
       <c r="L39"/>
     </row>
-    <row r="40" spans="1:12" hidden="1">
+    <row r="40" spans="1:12">
       <c r="A40" t="s">
         <v>3058</v>
       </c>
@@ -63884,7 +63884,7 @@
       </c>
       <c r="L40"/>
     </row>
-    <row r="41" spans="1:12" hidden="1">
+    <row r="41" spans="1:12">
       <c r="A41" t="s">
         <v>5830</v>
       </c>
@@ -63917,7 +63917,7 @@
       </c>
       <c r="L41"/>
     </row>
-    <row r="42" spans="1:12" hidden="1">
+    <row r="42" spans="1:12">
       <c r="A42" t="s">
         <v>5831</v>
       </c>
@@ -63950,7 +63950,7 @@
       </c>
       <c r="L42"/>
     </row>
-    <row r="43" spans="1:12" hidden="1">
+    <row r="43" spans="1:12">
       <c r="A43" t="s">
         <v>3065</v>
       </c>
@@ -63983,7 +63983,7 @@
       </c>
       <c r="L43"/>
     </row>
-    <row r="44" spans="1:12" hidden="1">
+    <row r="44" spans="1:12">
       <c r="A44" t="s">
         <v>3068</v>
       </c>
@@ -64016,7 +64016,7 @@
       </c>
       <c r="L44"/>
     </row>
-    <row r="45" spans="1:12" hidden="1">
+    <row r="45" spans="1:12">
       <c r="A45" t="s">
         <v>3071</v>
       </c>
@@ -64049,7 +64049,7 @@
       </c>
       <c r="L45"/>
     </row>
-    <row r="46" spans="1:12" hidden="1">
+    <row r="46" spans="1:12">
       <c r="A46" t="s">
         <v>3074</v>
       </c>
@@ -64082,7 +64082,7 @@
       </c>
       <c r="L46"/>
     </row>
-    <row r="47" spans="1:12" hidden="1">
+    <row r="47" spans="1:12">
       <c r="A47" t="s">
         <v>3077</v>
       </c>
@@ -64115,7 +64115,7 @@
       </c>
       <c r="L47"/>
     </row>
-    <row r="48" spans="1:12" hidden="1">
+    <row r="48" spans="1:12">
       <c r="A48" t="s">
         <v>3080</v>
       </c>
@@ -64148,7 +64148,7 @@
       </c>
       <c r="L48"/>
     </row>
-    <row r="49" spans="1:12" hidden="1">
+    <row r="49" spans="1:12">
       <c r="A49" t="s">
         <v>3083</v>
       </c>
@@ -64181,7 +64181,7 @@
       </c>
       <c r="L49"/>
     </row>
-    <row r="50" spans="1:12" hidden="1">
+    <row r="50" spans="1:12">
       <c r="A50" t="s">
         <v>3086</v>
       </c>
@@ -64214,7 +64214,7 @@
       </c>
       <c r="L50"/>
     </row>
-    <row r="51" spans="1:12" hidden="1">
+    <row r="51" spans="1:12">
       <c r="A51" t="s">
         <v>5832</v>
       </c>
@@ -64247,7 +64247,7 @@
       </c>
       <c r="L51"/>
     </row>
-    <row r="52" spans="1:12" hidden="1">
+    <row r="52" spans="1:12">
       <c r="A52" t="s">
         <v>5833</v>
       </c>
@@ -64280,7 +64280,7 @@
       </c>
       <c r="L52"/>
     </row>
-    <row r="53" spans="1:12" hidden="1">
+    <row r="53" spans="1:12">
       <c r="A53" t="s">
         <v>3093</v>
       </c>
@@ -64313,7 +64313,7 @@
       </c>
       <c r="L53"/>
     </row>
-    <row r="54" spans="1:12" hidden="1">
+    <row r="54" spans="1:12">
       <c r="A54" t="s">
         <v>3096</v>
       </c>
@@ -64346,7 +64346,7 @@
       </c>
       <c r="L54"/>
     </row>
-    <row r="55" spans="1:12" hidden="1">
+    <row r="55" spans="1:12">
       <c r="A55" t="s">
         <v>3099</v>
       </c>
@@ -64379,7 +64379,7 @@
       </c>
       <c r="L55"/>
     </row>
-    <row r="56" spans="1:12" hidden="1">
+    <row r="56" spans="1:12">
       <c r="A56" t="s">
         <v>3102</v>
       </c>
@@ -64412,7 +64412,7 @@
       </c>
       <c r="L56"/>
     </row>
-    <row r="57" spans="1:12" hidden="1">
+    <row r="57" spans="1:12">
       <c r="A57" t="s">
         <v>3105</v>
       </c>
@@ -64445,7 +64445,7 @@
       </c>
       <c r="L57"/>
     </row>
-    <row r="58" spans="1:12" hidden="1">
+    <row r="58" spans="1:12">
       <c r="A58" t="s">
         <v>3108</v>
       </c>
@@ -64478,7 +64478,7 @@
       </c>
       <c r="L58"/>
     </row>
-    <row r="59" spans="1:12" hidden="1">
+    <row r="59" spans="1:12">
       <c r="A59" t="s">
         <v>3111</v>
       </c>
@@ -64511,7 +64511,7 @@
       </c>
       <c r="L59"/>
     </row>
-    <row r="60" spans="1:12" hidden="1">
+    <row r="60" spans="1:12">
       <c r="A60" t="s">
         <v>3114</v>
       </c>
@@ -64544,7 +64544,7 @@
       </c>
       <c r="L60"/>
     </row>
-    <row r="61" spans="1:12" hidden="1">
+    <row r="61" spans="1:12">
       <c r="A61" t="s">
         <v>5834</v>
       </c>
@@ -64577,7 +64577,7 @@
       </c>
       <c r="L61"/>
     </row>
-    <row r="62" spans="1:12" hidden="1">
+    <row r="62" spans="1:12">
       <c r="A62" t="s">
         <v>5835</v>
       </c>
@@ -64610,7 +64610,7 @@
       </c>
       <c r="L62"/>
     </row>
-    <row r="63" spans="1:12" hidden="1">
+    <row r="63" spans="1:12">
       <c r="A63" t="s">
         <v>3121</v>
       </c>
@@ -64643,7 +64643,7 @@
       </c>
       <c r="L63"/>
     </row>
-    <row r="64" spans="1:12" hidden="1">
+    <row r="64" spans="1:12">
       <c r="A64" t="s">
         <v>3124</v>
       </c>
@@ -64676,7 +64676,7 @@
       </c>
       <c r="L64"/>
     </row>
-    <row r="65" spans="1:12" hidden="1">
+    <row r="65" spans="1:12">
       <c r="A65" t="s">
         <v>3127</v>
       </c>
@@ -64709,7 +64709,7 @@
       </c>
       <c r="L65"/>
     </row>
-    <row r="66" spans="1:12" hidden="1">
+    <row r="66" spans="1:12">
       <c r="A66" t="s">
         <v>3131</v>
       </c>
@@ -64742,7 +64742,7 @@
       </c>
       <c r="L66"/>
     </row>
-    <row r="67" spans="1:12" hidden="1">
+    <row r="67" spans="1:12">
       <c r="A67" t="s">
         <v>3134</v>
       </c>
@@ -64775,7 +64775,7 @@
       </c>
       <c r="L67"/>
     </row>
-    <row r="68" spans="1:12" hidden="1">
+    <row r="68" spans="1:12">
       <c r="A68" t="s">
         <v>3137</v>
       </c>
@@ -64808,7 +64808,7 @@
       </c>
       <c r="L68"/>
     </row>
-    <row r="69" spans="1:12" hidden="1">
+    <row r="69" spans="1:12">
       <c r="A69" t="s">
         <v>3140</v>
       </c>
@@ -64841,7 +64841,7 @@
       </c>
       <c r="L69"/>
     </row>
-    <row r="70" spans="1:12" hidden="1">
+    <row r="70" spans="1:12">
       <c r="A70" t="s">
         <v>3143</v>
       </c>
@@ -64874,7 +64874,7 @@
       </c>
       <c r="L70"/>
     </row>
-    <row r="71" spans="1:12" hidden="1">
+    <row r="71" spans="1:12">
       <c r="A71" t="s">
         <v>5836</v>
       </c>
@@ -64907,7 +64907,7 @@
       </c>
       <c r="L71"/>
     </row>
-    <row r="72" spans="1:12" hidden="1">
+    <row r="72" spans="1:12">
       <c r="A72" t="s">
         <v>5837</v>
       </c>
@@ -64940,7 +64940,7 @@
       </c>
       <c r="L72"/>
     </row>
-    <row r="73" spans="1:12" hidden="1">
+    <row r="73" spans="1:12">
       <c r="A73" t="s">
         <v>3150</v>
       </c>
@@ -64973,7 +64973,7 @@
       </c>
       <c r="L73"/>
     </row>
-    <row r="74" spans="1:12" hidden="1">
+    <row r="74" spans="1:12">
       <c r="A74" t="s">
         <v>3153</v>
       </c>
@@ -65006,7 +65006,7 @@
       </c>
       <c r="L74"/>
     </row>
-    <row r="75" spans="1:12" hidden="1">
+    <row r="75" spans="1:12">
       <c r="A75" t="s">
         <v>3156</v>
       </c>
@@ -65039,7 +65039,7 @@
       </c>
       <c r="L75"/>
     </row>
-    <row r="76" spans="1:12" hidden="1">
+    <row r="76" spans="1:12">
       <c r="A76" t="s">
         <v>3159</v>
       </c>
@@ -65072,7 +65072,7 @@
       </c>
       <c r="L76"/>
     </row>
-    <row r="77" spans="1:12" hidden="1">
+    <row r="77" spans="1:12">
       <c r="A77" t="s">
         <v>3162</v>
       </c>
@@ -65105,7 +65105,7 @@
       </c>
       <c r="L77"/>
     </row>
-    <row r="78" spans="1:12" hidden="1">
+    <row r="78" spans="1:12">
       <c r="A78" t="s">
         <v>3165</v>
       </c>
@@ -65138,7 +65138,7 @@
       </c>
       <c r="L78"/>
     </row>
-    <row r="79" spans="1:12" hidden="1">
+    <row r="79" spans="1:12">
       <c r="A79" t="s">
         <v>3168</v>
       </c>
@@ -65171,7 +65171,7 @@
       </c>
       <c r="L79"/>
     </row>
-    <row r="80" spans="1:12" hidden="1">
+    <row r="80" spans="1:12">
       <c r="A80" t="s">
         <v>3171</v>
       </c>
@@ -65204,7 +65204,7 @@
       </c>
       <c r="L80"/>
     </row>
-    <row r="81" spans="1:12" hidden="1">
+    <row r="81" spans="1:12">
       <c r="A81" t="s">
         <v>5838</v>
       </c>
@@ -65237,7 +65237,7 @@
       </c>
       <c r="L81"/>
     </row>
-    <row r="82" spans="1:12" hidden="1">
+    <row r="82" spans="1:12">
       <c r="A82" t="s">
         <v>5839</v>
       </c>
@@ -65270,7 +65270,7 @@
       </c>
       <c r="L82"/>
     </row>
-    <row r="83" spans="1:12" hidden="1">
+    <row r="83" spans="1:12">
       <c r="A83" t="s">
         <v>3178</v>
       </c>
@@ -65303,7 +65303,7 @@
       </c>
       <c r="L83"/>
     </row>
-    <row r="84" spans="1:12" hidden="1">
+    <row r="84" spans="1:12">
       <c r="A84" t="s">
         <v>3181</v>
       </c>
@@ -65336,7 +65336,7 @@
       </c>
       <c r="L84"/>
     </row>
-    <row r="85" spans="1:12" hidden="1">
+    <row r="85" spans="1:12">
       <c r="A85" t="s">
         <v>3184</v>
       </c>
@@ -65369,7 +65369,7 @@
       </c>
       <c r="L85"/>
     </row>
-    <row r="86" spans="1:12" hidden="1">
+    <row r="86" spans="1:12">
       <c r="A86" t="s">
         <v>3187</v>
       </c>
@@ -65402,7 +65402,7 @@
       </c>
       <c r="L86"/>
     </row>
-    <row r="87" spans="1:12" ht="16.5" hidden="1" customHeight="1">
+    <row r="87" spans="1:12" ht="16.5" customHeight="1">
       <c r="A87" t="s">
         <v>3189</v>
       </c>
@@ -65435,7 +65435,7 @@
       </c>
       <c r="L87"/>
     </row>
-    <row r="88" spans="1:12" hidden="1">
+    <row r="88" spans="1:12">
       <c r="A88" t="s">
         <v>3193</v>
       </c>
@@ -65468,7 +65468,7 @@
       </c>
       <c r="L88"/>
     </row>
-    <row r="89" spans="1:12" hidden="1">
+    <row r="89" spans="1:12">
       <c r="A89" t="s">
         <v>3196</v>
       </c>
@@ -65916,7 +65916,7 @@
       <c r="K102" s="4"/>
       <c r="L102"/>
     </row>
-    <row r="103" spans="1:12" hidden="1">
+    <row r="103" spans="1:12">
       <c r="A103" t="s">
         <v>3224</v>
       </c>
@@ -65949,7 +65949,7 @@
       </c>
       <c r="L103"/>
     </row>
-    <row r="104" spans="1:12" hidden="1">
+    <row r="104" spans="1:12">
       <c r="A104" t="s">
         <v>3227</v>
       </c>
@@ -65982,7 +65982,7 @@
       </c>
       <c r="L104"/>
     </row>
-    <row r="105" spans="1:12" hidden="1">
+    <row r="105" spans="1:12">
       <c r="A105" t="s">
         <v>3230</v>
       </c>
@@ -66015,7 +66015,7 @@
       </c>
       <c r="L105"/>
     </row>
-    <row r="106" spans="1:12" hidden="1">
+    <row r="106" spans="1:12">
       <c r="A106" t="s">
         <v>3233</v>
       </c>
@@ -66048,7 +66048,7 @@
       </c>
       <c r="L106"/>
     </row>
-    <row r="107" spans="1:12" hidden="1">
+    <row r="107" spans="1:12">
       <c r="A107" t="s">
         <v>3236</v>
       </c>
@@ -66081,7 +66081,7 @@
       </c>
       <c r="L107"/>
     </row>
-    <row r="108" spans="1:12" hidden="1">
+    <row r="108" spans="1:12">
       <c r="A108" t="s">
         <v>5840</v>
       </c>
@@ -66114,7 +66114,7 @@
       </c>
       <c r="L108"/>
     </row>
-    <row r="109" spans="1:12" hidden="1">
+    <row r="109" spans="1:12">
       <c r="A109" t="s">
         <v>5841</v>
       </c>
@@ -66147,7 +66147,7 @@
       </c>
       <c r="L109"/>
     </row>
-    <row r="110" spans="1:12" hidden="1">
+    <row r="110" spans="1:12">
       <c r="A110" t="s">
         <v>3243</v>
       </c>
@@ -66180,7 +66180,7 @@
       </c>
       <c r="L110"/>
     </row>
-    <row r="111" spans="1:12" hidden="1">
+    <row r="111" spans="1:12">
       <c r="A111" t="s">
         <v>3246</v>
       </c>
@@ -66213,7 +66213,7 @@
       </c>
       <c r="L111"/>
     </row>
-    <row r="112" spans="1:12" hidden="1">
+    <row r="112" spans="1:12">
       <c r="A112" t="s">
         <v>3249</v>
       </c>
@@ -66246,7 +66246,7 @@
       </c>
       <c r="L112"/>
     </row>
-    <row r="113" spans="1:12" hidden="1">
+    <row r="113" spans="1:12">
       <c r="A113" t="s">
         <v>3252</v>
       </c>
@@ -66279,7 +66279,7 @@
       </c>
       <c r="L113"/>
     </row>
-    <row r="114" spans="1:12" hidden="1">
+    <row r="114" spans="1:12">
       <c r="A114" t="s">
         <v>3255</v>
       </c>
@@ -66312,7 +66312,7 @@
       </c>
       <c r="L114"/>
     </row>
-    <row r="115" spans="1:12" hidden="1">
+    <row r="115" spans="1:12">
       <c r="A115" t="s">
         <v>3258</v>
       </c>
@@ -66345,7 +66345,7 @@
       </c>
       <c r="L115"/>
     </row>
-    <row r="116" spans="1:12" hidden="1">
+    <row r="116" spans="1:12">
       <c r="A116" t="s">
         <v>3261</v>
       </c>
@@ -66378,7 +66378,7 @@
       </c>
       <c r="L116"/>
     </row>
-    <row r="117" spans="1:12" hidden="1">
+    <row r="117" spans="1:12">
       <c r="A117" t="s">
         <v>3264</v>
       </c>
@@ -66411,7 +66411,7 @@
       </c>
       <c r="L117"/>
     </row>
-    <row r="118" spans="1:12" hidden="1">
+    <row r="118" spans="1:12">
       <c r="A118" t="s">
         <v>3267</v>
       </c>
@@ -66444,7 +66444,7 @@
       </c>
       <c r="L118"/>
     </row>
-    <row r="119" spans="1:12" hidden="1">
+    <row r="119" spans="1:12">
       <c r="A119" t="s">
         <v>3270</v>
       </c>
@@ -66477,7 +66477,7 @@
       </c>
       <c r="L119"/>
     </row>
-    <row r="120" spans="1:12" hidden="1">
+    <row r="120" spans="1:12">
       <c r="A120" t="s">
         <v>3273</v>
       </c>
@@ -66510,7 +66510,7 @@
       </c>
       <c r="L120"/>
     </row>
-    <row r="121" spans="1:12" hidden="1">
+    <row r="121" spans="1:12">
       <c r="A121" t="s">
         <v>3276</v>
       </c>
@@ -66543,7 +66543,7 @@
       </c>
       <c r="L121"/>
     </row>
-    <row r="122" spans="1:12" hidden="1">
+    <row r="122" spans="1:12">
       <c r="A122" t="s">
         <v>3279</v>
       </c>
@@ -66576,7 +66576,7 @@
       </c>
       <c r="L122"/>
     </row>
-    <row r="123" spans="1:12" hidden="1">
+    <row r="123" spans="1:12">
       <c r="A123" t="s">
         <v>3282</v>
       </c>
@@ -66609,7 +66609,7 @@
       </c>
       <c r="L123"/>
     </row>
-    <row r="124" spans="1:12" hidden="1">
+    <row r="124" spans="1:12">
       <c r="A124" t="s">
         <v>3285</v>
       </c>
@@ -66642,7 +66642,7 @@
       </c>
       <c r="L124"/>
     </row>
-    <row r="125" spans="1:12" hidden="1">
+    <row r="125" spans="1:12">
       <c r="A125" t="s">
         <v>3288</v>
       </c>
@@ -66675,7 +66675,7 @@
       </c>
       <c r="L125"/>
     </row>
-    <row r="126" spans="1:12" hidden="1">
+    <row r="126" spans="1:12">
       <c r="A126" t="s">
         <v>3291</v>
       </c>
@@ -66708,7 +66708,7 @@
       </c>
       <c r="L126"/>
     </row>
-    <row r="127" spans="1:12" hidden="1">
+    <row r="127" spans="1:12">
       <c r="A127" t="s">
         <v>3294</v>
       </c>
@@ -66741,7 +66741,7 @@
       </c>
       <c r="L127"/>
     </row>
-    <row r="128" spans="1:12" hidden="1">
+    <row r="128" spans="1:12">
       <c r="A128" t="s">
         <v>3297</v>
       </c>
@@ -66774,7 +66774,7 @@
       </c>
       <c r="L128"/>
     </row>
-    <row r="129" spans="1:12" hidden="1">
+    <row r="129" spans="1:12">
       <c r="A129" t="s">
         <v>3300</v>
       </c>
@@ -66807,7 +66807,7 @@
       </c>
       <c r="L129"/>
     </row>
-    <row r="130" spans="1:12" hidden="1">
+    <row r="130" spans="1:12">
       <c r="A130" t="s">
         <v>3303</v>
       </c>
@@ -66840,7 +66840,7 @@
       </c>
       <c r="L130"/>
     </row>
-    <row r="131" spans="1:12" hidden="1">
+    <row r="131" spans="1:12">
       <c r="A131" t="s">
         <v>3306</v>
       </c>
@@ -66873,7 +66873,7 @@
       </c>
       <c r="L131"/>
     </row>
-    <row r="132" spans="1:12" hidden="1">
+    <row r="132" spans="1:12">
       <c r="A132" t="s">
         <v>3309</v>
       </c>
@@ -66906,7 +66906,7 @@
       </c>
       <c r="L132"/>
     </row>
-    <row r="133" spans="1:12" hidden="1">
+    <row r="133" spans="1:12">
       <c r="A133" t="s">
         <v>3312</v>
       </c>
@@ -66939,7 +66939,7 @@
       </c>
       <c r="L133"/>
     </row>
-    <row r="134" spans="1:12" hidden="1">
+    <row r="134" spans="1:12">
       <c r="A134" t="s">
         <v>5842</v>
       </c>
@@ -66972,7 +66972,7 @@
       </c>
       <c r="L134"/>
     </row>
-    <row r="135" spans="1:12" hidden="1">
+    <row r="135" spans="1:12">
       <c r="A135" t="s">
         <v>5843</v>
       </c>
@@ -67005,7 +67005,7 @@
       </c>
       <c r="L135"/>
     </row>
-    <row r="136" spans="1:12" hidden="1">
+    <row r="136" spans="1:12">
       <c r="A136" t="s">
         <v>3319</v>
       </c>
@@ -67038,7 +67038,7 @@
       </c>
       <c r="L136"/>
     </row>
-    <row r="137" spans="1:12" hidden="1">
+    <row r="137" spans="1:12">
       <c r="A137" t="s">
         <v>3322</v>
       </c>
@@ -67071,7 +67071,7 @@
       </c>
       <c r="L137"/>
     </row>
-    <row r="138" spans="1:12" hidden="1">
+    <row r="138" spans="1:12">
       <c r="A138" t="s">
         <v>3325</v>
       </c>
@@ -67104,7 +67104,7 @@
       </c>
       <c r="L138"/>
     </row>
-    <row r="139" spans="1:12" hidden="1">
+    <row r="139" spans="1:12">
       <c r="A139" t="s">
         <v>3328</v>
       </c>
@@ -67137,7 +67137,7 @@
       </c>
       <c r="L139"/>
     </row>
-    <row r="140" spans="1:12" hidden="1">
+    <row r="140" spans="1:12">
       <c r="A140" t="s">
         <v>3331</v>
       </c>
@@ -67170,7 +67170,7 @@
       </c>
       <c r="L140"/>
     </row>
-    <row r="141" spans="1:12" hidden="1">
+    <row r="141" spans="1:12">
       <c r="A141" t="s">
         <v>3334</v>
       </c>
@@ -67203,7 +67203,7 @@
       </c>
       <c r="L141"/>
     </row>
-    <row r="142" spans="1:12" hidden="1">
+    <row r="142" spans="1:12">
       <c r="A142" t="s">
         <v>3337</v>
       </c>
@@ -67236,7 +67236,7 @@
       </c>
       <c r="L142"/>
     </row>
-    <row r="143" spans="1:12" hidden="1">
+    <row r="143" spans="1:12">
       <c r="A143" t="s">
         <v>3340</v>
       </c>
@@ -67269,7 +67269,7 @@
       </c>
       <c r="L143"/>
     </row>
-    <row r="144" spans="1:12" hidden="1">
+    <row r="144" spans="1:12">
       <c r="A144" t="s">
         <v>5844</v>
       </c>
@@ -67302,7 +67302,7 @@
       </c>
       <c r="L144"/>
     </row>
-    <row r="145" spans="1:12" hidden="1">
+    <row r="145" spans="1:12">
       <c r="A145" t="s">
         <v>5845</v>
       </c>
@@ -67335,7 +67335,7 @@
       </c>
       <c r="L145"/>
     </row>
-    <row r="146" spans="1:12" hidden="1">
+    <row r="146" spans="1:12">
       <c r="A146" t="s">
         <v>3347</v>
       </c>
@@ -67368,7 +67368,7 @@
       </c>
       <c r="L146"/>
     </row>
-    <row r="147" spans="1:12" hidden="1">
+    <row r="147" spans="1:12">
       <c r="A147" t="s">
         <v>3350</v>
       </c>
@@ -67401,7 +67401,7 @@
       </c>
       <c r="L147"/>
     </row>
-    <row r="148" spans="1:12" hidden="1">
+    <row r="148" spans="1:12">
       <c r="A148" t="s">
         <v>3353</v>
       </c>
@@ -67434,7 +67434,7 @@
       </c>
       <c r="L148"/>
     </row>
-    <row r="149" spans="1:12" hidden="1">
+    <row r="149" spans="1:12">
       <c r="A149" t="s">
         <v>3357</v>
       </c>
@@ -67467,7 +67467,7 @@
       </c>
       <c r="L149"/>
     </row>
-    <row r="150" spans="1:12" hidden="1">
+    <row r="150" spans="1:12">
       <c r="A150" t="s">
         <v>3360</v>
       </c>
@@ -67500,7 +67500,7 @@
       </c>
       <c r="L150"/>
     </row>
-    <row r="151" spans="1:12" hidden="1">
+    <row r="151" spans="1:12">
       <c r="A151" t="s">
         <v>3363</v>
       </c>
@@ -67533,7 +67533,7 @@
       </c>
       <c r="L151"/>
     </row>
-    <row r="152" spans="1:12" hidden="1">
+    <row r="152" spans="1:12">
       <c r="A152" t="s">
         <v>3366</v>
       </c>
@@ -67566,7 +67566,7 @@
       </c>
       <c r="L152"/>
     </row>
-    <row r="153" spans="1:12" hidden="1">
+    <row r="153" spans="1:12">
       <c r="A153" t="s">
         <v>3369</v>
       </c>
@@ -67599,7 +67599,7 @@
       </c>
       <c r="L153"/>
     </row>
-    <row r="154" spans="1:12" hidden="1">
+    <row r="154" spans="1:12">
       <c r="A154" t="s">
         <v>5846</v>
       </c>
@@ -67632,7 +67632,7 @@
       </c>
       <c r="L154"/>
     </row>
-    <row r="155" spans="1:12" hidden="1">
+    <row r="155" spans="1:12">
       <c r="A155" t="s">
         <v>5847</v>
       </c>
@@ -67665,7 +67665,7 @@
       </c>
       <c r="L155"/>
     </row>
-    <row r="156" spans="1:12" hidden="1">
+    <row r="156" spans="1:12">
       <c r="A156" t="s">
         <v>3376</v>
       </c>
@@ -67698,7 +67698,7 @@
       </c>
       <c r="L156"/>
     </row>
-    <row r="157" spans="1:12" hidden="1">
+    <row r="157" spans="1:12">
       <c r="A157" t="s">
         <v>3380</v>
       </c>
@@ -67731,7 +67731,7 @@
       </c>
       <c r="L157"/>
     </row>
-    <row r="158" spans="1:12" hidden="1">
+    <row r="158" spans="1:12">
       <c r="A158" t="s">
         <v>3383</v>
       </c>
@@ -67764,7 +67764,7 @@
       </c>
       <c r="L158"/>
     </row>
-    <row r="159" spans="1:12" hidden="1">
+    <row r="159" spans="1:12">
       <c r="A159" t="s">
         <v>3386</v>
       </c>
@@ -67797,7 +67797,7 @@
       </c>
       <c r="L159"/>
     </row>
-    <row r="160" spans="1:12" hidden="1">
+    <row r="160" spans="1:12">
       <c r="A160" t="s">
         <v>3389</v>
       </c>
@@ -67830,7 +67830,7 @@
       </c>
       <c r="L160"/>
     </row>
-    <row r="161" spans="1:12" hidden="1">
+    <row r="161" spans="1:12">
       <c r="A161" t="s">
         <v>3392</v>
       </c>
@@ -67863,7 +67863,7 @@
       </c>
       <c r="L161"/>
     </row>
-    <row r="162" spans="1:12" hidden="1">
+    <row r="162" spans="1:12">
       <c r="A162" t="s">
         <v>3395</v>
       </c>
@@ -67896,7 +67896,7 @@
       </c>
       <c r="L162"/>
     </row>
-    <row r="163" spans="1:12" hidden="1">
+    <row r="163" spans="1:12">
       <c r="A163" t="s">
         <v>3398</v>
       </c>
@@ -67929,7 +67929,7 @@
       </c>
       <c r="L163"/>
     </row>
-    <row r="164" spans="1:12" hidden="1">
+    <row r="164" spans="1:12">
       <c r="A164" t="s">
         <v>5848</v>
       </c>
@@ -67962,7 +67962,7 @@
       </c>
       <c r="L164"/>
     </row>
-    <row r="165" spans="1:12" hidden="1">
+    <row r="165" spans="1:12">
       <c r="A165" t="s">
         <v>5849</v>
       </c>
@@ -67995,7 +67995,7 @@
       </c>
       <c r="L165"/>
     </row>
-    <row r="166" spans="1:12" hidden="1">
+    <row r="166" spans="1:12">
       <c r="A166" t="s">
         <v>3405</v>
       </c>
@@ -68028,7 +68028,7 @@
       </c>
       <c r="L166"/>
     </row>
-    <row r="167" spans="1:12" hidden="1">
+    <row r="167" spans="1:12">
       <c r="A167" t="s">
         <v>3409</v>
       </c>
@@ -68061,7 +68061,7 @@
       </c>
       <c r="L167"/>
     </row>
-    <row r="168" spans="1:12" hidden="1">
+    <row r="168" spans="1:12">
       <c r="A168" t="s">
         <v>3412</v>
       </c>
@@ -68094,7 +68094,7 @@
       </c>
       <c r="L168"/>
     </row>
-    <row r="169" spans="1:12" hidden="1">
+    <row r="169" spans="1:12">
       <c r="A169" t="s">
         <v>3415</v>
       </c>
@@ -68127,7 +68127,7 @@
       </c>
       <c r="L169"/>
     </row>
-    <row r="170" spans="1:12" hidden="1">
+    <row r="170" spans="1:12">
       <c r="A170" t="s">
         <v>3418</v>
       </c>
@@ -68160,7 +68160,7 @@
       </c>
       <c r="L170"/>
     </row>
-    <row r="171" spans="1:12" hidden="1">
+    <row r="171" spans="1:12">
       <c r="A171" t="s">
         <v>3421</v>
       </c>
@@ -68193,7 +68193,7 @@
       </c>
       <c r="L171"/>
     </row>
-    <row r="172" spans="1:12" hidden="1">
+    <row r="172" spans="1:12">
       <c r="A172" t="s">
         <v>3424</v>
       </c>
@@ -68226,7 +68226,7 @@
       </c>
       <c r="L172"/>
     </row>
-    <row r="173" spans="1:12" hidden="1">
+    <row r="173" spans="1:12">
       <c r="A173" t="s">
         <v>3427</v>
       </c>
@@ -68259,7 +68259,7 @@
       </c>
       <c r="L173"/>
     </row>
-    <row r="174" spans="1:12" hidden="1">
+    <row r="174" spans="1:12">
       <c r="A174" t="s">
         <v>5850</v>
       </c>
@@ -68292,7 +68292,7 @@
       </c>
       <c r="L174"/>
     </row>
-    <row r="175" spans="1:12" hidden="1">
+    <row r="175" spans="1:12">
       <c r="A175" t="s">
         <v>5851</v>
       </c>
@@ -68325,7 +68325,7 @@
       </c>
       <c r="L175"/>
     </row>
-    <row r="176" spans="1:12" hidden="1">
+    <row r="176" spans="1:12">
       <c r="A176" t="s">
         <v>3434</v>
       </c>
@@ -68358,7 +68358,7 @@
       </c>
       <c r="L176"/>
     </row>
-    <row r="177" spans="1:12" hidden="1">
+    <row r="177" spans="1:12">
       <c r="A177" t="s">
         <v>3438</v>
       </c>
@@ -68391,7 +68391,7 @@
       </c>
       <c r="L177"/>
     </row>
-    <row r="178" spans="1:12" hidden="1">
+    <row r="178" spans="1:12">
       <c r="A178" t="s">
         <v>3441</v>
       </c>
@@ -68424,7 +68424,7 @@
       </c>
       <c r="L178"/>
     </row>
-    <row r="179" spans="1:12" hidden="1">
+    <row r="179" spans="1:12">
       <c r="A179" t="s">
         <v>3444</v>
       </c>
@@ -68457,7 +68457,7 @@
       </c>
       <c r="L179"/>
     </row>
-    <row r="180" spans="1:12" hidden="1">
+    <row r="180" spans="1:12">
       <c r="A180" t="s">
         <v>3447</v>
       </c>
@@ -68490,7 +68490,7 @@
       </c>
       <c r="L180"/>
     </row>
-    <row r="181" spans="1:12" hidden="1">
+    <row r="181" spans="1:12">
       <c r="A181" t="s">
         <v>3450</v>
       </c>
@@ -68523,7 +68523,7 @@
       </c>
       <c r="L181"/>
     </row>
-    <row r="182" spans="1:12" hidden="1">
+    <row r="182" spans="1:12">
       <c r="A182" t="s">
         <v>3453</v>
       </c>
@@ -68556,7 +68556,7 @@
       </c>
       <c r="L182"/>
     </row>
-    <row r="183" spans="1:12" hidden="1">
+    <row r="183" spans="1:12">
       <c r="A183" t="s">
         <v>3456</v>
       </c>
@@ -68589,7 +68589,7 @@
       </c>
       <c r="L183"/>
     </row>
-    <row r="184" spans="1:12" hidden="1">
+    <row r="184" spans="1:12">
       <c r="A184" t="s">
         <v>5852</v>
       </c>
@@ -68622,7 +68622,7 @@
       </c>
       <c r="L184"/>
     </row>
-    <row r="185" spans="1:12" hidden="1">
+    <row r="185" spans="1:12">
       <c r="A185" t="s">
         <v>5853</v>
       </c>
@@ -68655,7 +68655,7 @@
       </c>
       <c r="L185"/>
     </row>
-    <row r="186" spans="1:12" hidden="1">
+    <row r="186" spans="1:12">
       <c r="A186" t="s">
         <v>3463</v>
       </c>
@@ -68688,7 +68688,7 @@
       </c>
       <c r="L186"/>
     </row>
-    <row r="187" spans="1:12" hidden="1">
+    <row r="187" spans="1:12">
       <c r="A187" t="s">
         <v>3466</v>
       </c>
@@ -68721,7 +68721,7 @@
       </c>
       <c r="L187"/>
     </row>
-    <row r="188" spans="1:12" hidden="1">
+    <row r="188" spans="1:12">
       <c r="A188" t="s">
         <v>3469</v>
       </c>
@@ -68754,7 +68754,7 @@
       </c>
       <c r="L188"/>
     </row>
-    <row r="189" spans="1:12" hidden="1">
+    <row r="189" spans="1:12">
       <c r="A189" t="s">
         <v>3472</v>
       </c>
@@ -68787,7 +68787,7 @@
       </c>
       <c r="L189"/>
     </row>
-    <row r="190" spans="1:12" hidden="1">
+    <row r="190" spans="1:12">
       <c r="A190" t="s">
         <v>3475</v>
       </c>
@@ -68820,7 +68820,7 @@
       </c>
       <c r="L190"/>
     </row>
-    <row r="191" spans="1:12" hidden="1">
+    <row r="191" spans="1:12">
       <c r="A191" t="s">
         <v>3478</v>
       </c>
@@ -68853,7 +68853,7 @@
       </c>
       <c r="L191"/>
     </row>
-    <row r="192" spans="1:12" hidden="1">
+    <row r="192" spans="1:12">
       <c r="A192" t="s">
         <v>3481</v>
       </c>
@@ -68886,7 +68886,7 @@
       </c>
       <c r="L192"/>
     </row>
-    <row r="193" spans="1:12" hidden="1">
+    <row r="193" spans="1:12">
       <c r="A193" t="s">
         <v>3484</v>
       </c>
@@ -68919,7 +68919,7 @@
       </c>
       <c r="L193"/>
     </row>
-    <row r="194" spans="1:12" hidden="1">
+    <row r="194" spans="1:12">
       <c r="A194" t="s">
         <v>5854</v>
       </c>
@@ -68952,7 +68952,7 @@
       </c>
       <c r="L194"/>
     </row>
-    <row r="195" spans="1:12" hidden="1">
+    <row r="195" spans="1:12">
       <c r="A195" t="s">
         <v>5855</v>
       </c>
@@ -68985,7 +68985,7 @@
       </c>
       <c r="L195"/>
     </row>
-    <row r="196" spans="1:12" hidden="1">
+    <row r="196" spans="1:12">
       <c r="A196" t="s">
         <v>3492</v>
       </c>
@@ -69018,7 +69018,7 @@
       </c>
       <c r="L196"/>
     </row>
-    <row r="197" spans="1:12" hidden="1">
+    <row r="197" spans="1:12">
       <c r="A197" t="s">
         <v>3495</v>
       </c>
@@ -69051,7 +69051,7 @@
       </c>
       <c r="L197"/>
     </row>
-    <row r="198" spans="1:12" hidden="1">
+    <row r="198" spans="1:12">
       <c r="A198" t="s">
         <v>3498</v>
       </c>
@@ -69084,7 +69084,7 @@
       </c>
       <c r="L198"/>
     </row>
-    <row r="199" spans="1:12" hidden="1">
+    <row r="199" spans="1:12">
       <c r="A199" t="s">
         <v>3501</v>
       </c>
@@ -69117,7 +69117,7 @@
       </c>
       <c r="L199"/>
     </row>
-    <row r="200" spans="1:12" hidden="1">
+    <row r="200" spans="1:12">
       <c r="A200" t="s">
         <v>3504</v>
       </c>
@@ -69150,7 +69150,7 @@
       </c>
       <c r="L200"/>
     </row>
-    <row r="201" spans="1:12" hidden="1">
+    <row r="201" spans="1:12">
       <c r="A201" t="s">
         <v>3507</v>
       </c>
@@ -69183,7 +69183,7 @@
       </c>
       <c r="L201"/>
     </row>
-    <row r="202" spans="1:12" hidden="1">
+    <row r="202" spans="1:12">
       <c r="A202" t="s">
         <v>3511</v>
       </c>
@@ -69216,7 +69216,7 @@
       </c>
       <c r="L202"/>
     </row>
-    <row r="203" spans="1:12" hidden="1">
+    <row r="203" spans="1:12">
       <c r="A203" t="s">
         <v>3515</v>
       </c>
@@ -69249,7 +69249,7 @@
       </c>
       <c r="L203"/>
     </row>
-    <row r="204" spans="1:12" hidden="1">
+    <row r="204" spans="1:12">
       <c r="A204" t="s">
         <v>5856</v>
       </c>
@@ -69282,7 +69282,7 @@
       </c>
       <c r="L204"/>
     </row>
-    <row r="205" spans="1:12" hidden="1">
+    <row r="205" spans="1:12">
       <c r="A205" t="s">
         <v>3522</v>
       </c>
@@ -69547,7 +69547,7 @@
         <v>4061</v>
       </c>
     </row>
-    <row r="213" spans="1:12" hidden="1">
+    <row r="213" spans="1:12">
       <c r="A213" t="s">
         <v>3551</v>
       </c>
@@ -69580,7 +69580,7 @@
       </c>
       <c r="L213"/>
     </row>
-    <row r="214" spans="1:12" hidden="1">
+    <row r="214" spans="1:12">
       <c r="A214" t="s">
         <v>3554</v>
       </c>
@@ -69613,7 +69613,7 @@
       </c>
       <c r="L214"/>
     </row>
-    <row r="215" spans="1:12" hidden="1">
+    <row r="215" spans="1:12">
       <c r="A215" t="s">
         <v>3556</v>
       </c>
@@ -69646,7 +69646,7 @@
       </c>
       <c r="L215"/>
     </row>
-    <row r="216" spans="1:12" hidden="1">
+    <row r="216" spans="1:12">
       <c r="A216" t="s">
         <v>3559</v>
       </c>
@@ -69679,7 +69679,7 @@
       </c>
       <c r="L216"/>
     </row>
-    <row r="217" spans="1:12" hidden="1">
+    <row r="217" spans="1:12">
       <c r="A217" t="s">
         <v>3562</v>
       </c>
@@ -69712,7 +69712,7 @@
       </c>
       <c r="L217"/>
     </row>
-    <row r="218" spans="1:12" hidden="1">
+    <row r="218" spans="1:12">
       <c r="A218" t="s">
         <v>5857</v>
       </c>
@@ -69745,7 +69745,7 @@
       </c>
       <c r="L218"/>
     </row>
-    <row r="219" spans="1:12" hidden="1">
+    <row r="219" spans="1:12">
       <c r="A219" t="s">
         <v>3567</v>
       </c>
@@ -69778,7 +69778,7 @@
       </c>
       <c r="L219"/>
     </row>
-    <row r="220" spans="1:12" hidden="1">
+    <row r="220" spans="1:12">
       <c r="A220" t="s">
         <v>3570</v>
       </c>
@@ -69811,7 +69811,7 @@
       </c>
       <c r="L220"/>
     </row>
-    <row r="221" spans="1:12" hidden="1">
+    <row r="221" spans="1:12">
       <c r="A221" t="s">
         <v>3573</v>
       </c>
@@ -69844,7 +69844,7 @@
       </c>
       <c r="L221"/>
     </row>
-    <row r="222" spans="1:12" hidden="1">
+    <row r="222" spans="1:12">
       <c r="A222" t="s">
         <v>3574</v>
       </c>
@@ -69877,7 +69877,7 @@
       </c>
       <c r="L222"/>
     </row>
-    <row r="223" spans="1:12" hidden="1">
+    <row r="223" spans="1:12">
       <c r="A223" t="s">
         <v>3577</v>
       </c>
@@ -69910,7 +69910,7 @@
       </c>
       <c r="L223"/>
     </row>
-    <row r="224" spans="1:12" hidden="1">
+    <row r="224" spans="1:12">
       <c r="A224" t="s">
         <v>3580</v>
       </c>
@@ -69943,7 +69943,7 @@
       </c>
       <c r="L224"/>
     </row>
-    <row r="225" spans="1:12" hidden="1">
+    <row r="225" spans="1:12">
       <c r="A225" t="s">
         <v>3581</v>
       </c>
@@ -69976,7 +69976,7 @@
       </c>
       <c r="L225"/>
     </row>
-    <row r="226" spans="1:12" hidden="1">
+    <row r="226" spans="1:12">
       <c r="A226" t="s">
         <v>3584</v>
       </c>
@@ -70009,7 +70009,7 @@
       </c>
       <c r="L226"/>
     </row>
-    <row r="227" spans="1:12" hidden="1">
+    <row r="227" spans="1:12">
       <c r="A227" t="s">
         <v>5858</v>
       </c>
@@ -70042,7 +70042,7 @@
       </c>
       <c r="L227"/>
     </row>
-    <row r="228" spans="1:12" hidden="1">
+    <row r="228" spans="1:12">
       <c r="A228" t="s">
         <v>3589</v>
       </c>
@@ -70075,7 +70075,7 @@
       </c>
       <c r="L228"/>
     </row>
-    <row r="229" spans="1:12" hidden="1">
+    <row r="229" spans="1:12">
       <c r="A229" t="s">
         <v>3592</v>
       </c>
@@ -70108,7 +70108,7 @@
       </c>
       <c r="L229"/>
     </row>
-    <row r="230" spans="1:12" hidden="1">
+    <row r="230" spans="1:12">
       <c r="A230" t="s">
         <v>5859</v>
       </c>
@@ -70141,7 +70141,7 @@
       </c>
       <c r="L230"/>
     </row>
-    <row r="231" spans="1:12" hidden="1">
+    <row r="231" spans="1:12">
       <c r="A231" t="s">
         <v>3599</v>
       </c>
@@ -70174,7 +70174,7 @@
       </c>
       <c r="L231"/>
     </row>
-    <row r="232" spans="1:12" hidden="1">
+    <row r="232" spans="1:12">
       <c r="A232" t="s">
         <v>3603</v>
       </c>
@@ -70207,7 +70207,7 @@
       </c>
       <c r="L232"/>
     </row>
-    <row r="233" spans="1:12" hidden="1">
+    <row r="233" spans="1:12">
       <c r="A233" t="s">
         <v>3606</v>
       </c>
@@ -70240,7 +70240,7 @@
       </c>
       <c r="L233"/>
     </row>
-    <row r="234" spans="1:12" hidden="1">
+    <row r="234" spans="1:12">
       <c r="A234" t="s">
         <v>3609</v>
       </c>
@@ -70273,7 +70273,7 @@
       </c>
       <c r="L234"/>
     </row>
-    <row r="235" spans="1:12" hidden="1">
+    <row r="235" spans="1:12">
       <c r="A235" t="s">
         <v>3612</v>
       </c>
@@ -70306,7 +70306,7 @@
       </c>
       <c r="L235"/>
     </row>
-    <row r="236" spans="1:12" hidden="1">
+    <row r="236" spans="1:12">
       <c r="A236" t="s">
         <v>3615</v>
       </c>
@@ -70339,7 +70339,7 @@
       </c>
       <c r="L236"/>
     </row>
-    <row r="237" spans="1:12" hidden="1">
+    <row r="237" spans="1:12">
       <c r="A237" t="s">
         <v>3618</v>
       </c>
@@ -70372,7 +70372,7 @@
       </c>
       <c r="L237"/>
     </row>
-    <row r="238" spans="1:12" hidden="1">
+    <row r="238" spans="1:12">
       <c r="A238" t="s">
         <v>3621</v>
       </c>
@@ -70405,7 +70405,7 @@
       </c>
       <c r="L238"/>
     </row>
-    <row r="239" spans="1:12" hidden="1">
+    <row r="239" spans="1:12">
       <c r="A239" t="s">
         <v>3624</v>
       </c>
@@ -70438,7 +70438,7 @@
       </c>
       <c r="L239"/>
     </row>
-    <row r="240" spans="1:12" hidden="1">
+    <row r="240" spans="1:12">
       <c r="A240" t="s">
         <v>5860</v>
       </c>
@@ -70471,7 +70471,7 @@
       </c>
       <c r="L240"/>
     </row>
-    <row r="241" spans="1:12" hidden="1">
+    <row r="241" spans="1:12">
       <c r="A241" t="s">
         <v>5861</v>
       </c>
@@ -70504,7 +70504,7 @@
       </c>
       <c r="L241"/>
     </row>
-    <row r="242" spans="1:12" hidden="1">
+    <row r="242" spans="1:12">
       <c r="A242" t="s">
         <v>3631</v>
       </c>
@@ -70537,7 +70537,7 @@
       </c>
       <c r="L242"/>
     </row>
-    <row r="243" spans="1:12" hidden="1">
+    <row r="243" spans="1:12">
       <c r="A243" t="s">
         <v>3634</v>
       </c>
@@ -70570,7 +70570,7 @@
       </c>
       <c r="L243"/>
     </row>
-    <row r="244" spans="1:12" hidden="1">
+    <row r="244" spans="1:12">
       <c r="A244" t="s">
         <v>3637</v>
       </c>
@@ -70603,7 +70603,7 @@
       </c>
       <c r="L244"/>
     </row>
-    <row r="245" spans="1:12" hidden="1">
+    <row r="245" spans="1:12">
       <c r="A245" t="s">
         <v>3640</v>
       </c>
@@ -70636,7 +70636,7 @@
       </c>
       <c r="L245"/>
     </row>
-    <row r="246" spans="1:12" hidden="1">
+    <row r="246" spans="1:12">
       <c r="A246" t="s">
         <v>3643</v>
       </c>
@@ -70669,7 +70669,7 @@
       </c>
       <c r="L246"/>
     </row>
-    <row r="247" spans="1:12" hidden="1">
+    <row r="247" spans="1:12">
       <c r="A247" t="s">
         <v>3646</v>
       </c>
@@ -70702,7 +70702,7 @@
       </c>
       <c r="L247"/>
     </row>
-    <row r="248" spans="1:12" hidden="1">
+    <row r="248" spans="1:12">
       <c r="A248" t="s">
         <v>3649</v>
       </c>
@@ -70735,7 +70735,7 @@
       </c>
       <c r="L248"/>
     </row>
-    <row r="249" spans="1:12" hidden="1">
+    <row r="249" spans="1:12">
       <c r="A249" t="s">
         <v>3652</v>
       </c>
@@ -70768,7 +70768,7 @@
       </c>
       <c r="L249"/>
     </row>
-    <row r="250" spans="1:12" hidden="1">
+    <row r="250" spans="1:12">
       <c r="A250" t="s">
         <v>5862</v>
       </c>
@@ -70801,7 +70801,7 @@
       </c>
       <c r="L250"/>
     </row>
-    <row r="251" spans="1:12" hidden="1">
+    <row r="251" spans="1:12">
       <c r="A251" t="s">
         <v>5863</v>
       </c>
@@ -70834,7 +70834,7 @@
       </c>
       <c r="L251"/>
     </row>
-    <row r="252" spans="1:12" hidden="1">
+    <row r="252" spans="1:12">
       <c r="A252" t="s">
         <v>3660</v>
       </c>
@@ -70867,7 +70867,7 @@
       </c>
       <c r="L252"/>
     </row>
-    <row r="253" spans="1:12" hidden="1">
+    <row r="253" spans="1:12">
       <c r="A253" t="s">
         <v>3663</v>
       </c>
@@ -70900,7 +70900,7 @@
       </c>
       <c r="L253"/>
     </row>
-    <row r="254" spans="1:12" hidden="1">
+    <row r="254" spans="1:12">
       <c r="A254" t="s">
         <v>3666</v>
       </c>
@@ -70933,7 +70933,7 @@
       </c>
       <c r="L254"/>
     </row>
-    <row r="255" spans="1:12" hidden="1">
+    <row r="255" spans="1:12">
       <c r="A255" t="s">
         <v>3669</v>
       </c>
@@ -70966,7 +70966,7 @@
       </c>
       <c r="L255"/>
     </row>
-    <row r="256" spans="1:12" hidden="1">
+    <row r="256" spans="1:12">
       <c r="A256" t="s">
         <v>3672</v>
       </c>
@@ -70999,7 +70999,7 @@
       </c>
       <c r="L256"/>
     </row>
-    <row r="257" spans="1:12" hidden="1">
+    <row r="257" spans="1:12">
       <c r="A257" t="s">
         <v>3675</v>
       </c>
@@ -71032,7 +71032,7 @@
       </c>
       <c r="L257"/>
     </row>
-    <row r="258" spans="1:12" hidden="1">
+    <row r="258" spans="1:12">
       <c r="A258" t="s">
         <v>3678</v>
       </c>
@@ -71065,7 +71065,7 @@
       </c>
       <c r="L258"/>
     </row>
-    <row r="259" spans="1:12" hidden="1">
+    <row r="259" spans="1:12">
       <c r="A259" t="s">
         <v>3681</v>
       </c>
@@ -71098,7 +71098,7 @@
       </c>
       <c r="L259"/>
     </row>
-    <row r="260" spans="1:12" hidden="1">
+    <row r="260" spans="1:12">
       <c r="A260" t="s">
         <v>5864</v>
       </c>
@@ -71131,7 +71131,7 @@
       </c>
       <c r="L260"/>
     </row>
-    <row r="261" spans="1:12" hidden="1">
+    <row r="261" spans="1:12">
       <c r="A261" t="s">
         <v>5865</v>
       </c>
@@ -71164,7 +71164,7 @@
       </c>
       <c r="L261"/>
     </row>
-    <row r="262" spans="1:12" hidden="1">
+    <row r="262" spans="1:12">
       <c r="A262" t="s">
         <v>3688</v>
       </c>
@@ -71197,7 +71197,7 @@
       </c>
       <c r="L262"/>
     </row>
-    <row r="263" spans="1:12" hidden="1">
+    <row r="263" spans="1:12">
       <c r="A263" t="s">
         <v>3691</v>
       </c>
@@ -71230,7 +71230,7 @@
       </c>
       <c r="L263"/>
     </row>
-    <row r="264" spans="1:12" hidden="1">
+    <row r="264" spans="1:12">
       <c r="A264" t="s">
         <v>3694</v>
       </c>
@@ -71263,7 +71263,7 @@
       </c>
       <c r="L264"/>
     </row>
-    <row r="265" spans="1:12" hidden="1">
+    <row r="265" spans="1:12">
       <c r="A265" t="s">
         <v>3697</v>
       </c>
@@ -71296,7 +71296,7 @@
       </c>
       <c r="L265"/>
     </row>
-    <row r="266" spans="1:12" hidden="1">
+    <row r="266" spans="1:12">
       <c r="A266" t="s">
         <v>3700</v>
       </c>
@@ -71329,7 +71329,7 @@
       </c>
       <c r="L266"/>
     </row>
-    <row r="267" spans="1:12" hidden="1">
+    <row r="267" spans="1:12">
       <c r="A267" t="s">
         <v>3703</v>
       </c>
@@ -71362,7 +71362,7 @@
       </c>
       <c r="L267"/>
     </row>
-    <row r="268" spans="1:12" hidden="1">
+    <row r="268" spans="1:12">
       <c r="A268" t="s">
         <v>3706</v>
       </c>
@@ -71395,7 +71395,7 @@
       </c>
       <c r="L268"/>
     </row>
-    <row r="269" spans="1:12" hidden="1">
+    <row r="269" spans="1:12">
       <c r="A269" t="s">
         <v>3709</v>
       </c>
@@ -71428,7 +71428,7 @@
       </c>
       <c r="L269"/>
     </row>
-    <row r="270" spans="1:12" hidden="1">
+    <row r="270" spans="1:12">
       <c r="A270" t="s">
         <v>5866</v>
       </c>
@@ -71461,7 +71461,7 @@
       </c>
       <c r="L270"/>
     </row>
-    <row r="271" spans="1:12" hidden="1">
+    <row r="271" spans="1:12">
       <c r="A271" t="s">
         <v>5867</v>
       </c>
@@ -71494,7 +71494,7 @@
       </c>
       <c r="L271"/>
     </row>
-    <row r="272" spans="1:12" hidden="1">
+    <row r="272" spans="1:12">
       <c r="A272" t="s">
         <v>3716</v>
       </c>
@@ -71527,7 +71527,7 @@
       </c>
       <c r="L272"/>
     </row>
-    <row r="273" spans="1:12" hidden="1">
+    <row r="273" spans="1:12">
       <c r="A273" t="s">
         <v>3719</v>
       </c>
@@ -71560,7 +71560,7 @@
       </c>
       <c r="L273"/>
     </row>
-    <row r="274" spans="1:12" hidden="1">
+    <row r="274" spans="1:12">
       <c r="A274" t="s">
         <v>3722</v>
       </c>
@@ -71593,7 +71593,7 @@
       </c>
       <c r="L274"/>
     </row>
-    <row r="275" spans="1:12" hidden="1">
+    <row r="275" spans="1:12">
       <c r="A275" t="s">
         <v>3725</v>
       </c>
@@ -71626,7 +71626,7 @@
       </c>
       <c r="L275"/>
     </row>
-    <row r="276" spans="1:12" hidden="1">
+    <row r="276" spans="1:12">
       <c r="A276" t="s">
         <v>3728</v>
       </c>
@@ -71659,7 +71659,7 @@
       </c>
       <c r="L276"/>
     </row>
-    <row r="277" spans="1:12" hidden="1">
+    <row r="277" spans="1:12">
       <c r="A277" t="s">
         <v>3731</v>
       </c>
@@ -71692,7 +71692,7 @@
       </c>
       <c r="L277"/>
     </row>
-    <row r="278" spans="1:12" hidden="1">
+    <row r="278" spans="1:12">
       <c r="A278" t="s">
         <v>3734</v>
       </c>
@@ -71725,7 +71725,7 @@
       </c>
       <c r="L278"/>
     </row>
-    <row r="279" spans="1:12" hidden="1">
+    <row r="279" spans="1:12">
       <c r="A279" t="s">
         <v>5868</v>
       </c>
@@ -71758,7 +71758,7 @@
       </c>
       <c r="L279"/>
     </row>
-    <row r="280" spans="1:12" hidden="1">
+    <row r="280" spans="1:12">
       <c r="A280" t="s">
         <v>5869</v>
       </c>
@@ -71791,7 +71791,7 @@
       </c>
       <c r="L280"/>
     </row>
-    <row r="281" spans="1:12" hidden="1">
+    <row r="281" spans="1:12">
       <c r="A281" t="s">
         <v>3741</v>
       </c>
@@ -71824,7 +71824,7 @@
       </c>
       <c r="L281"/>
     </row>
-    <row r="282" spans="1:12" hidden="1">
+    <row r="282" spans="1:12">
       <c r="A282" t="s">
         <v>3744</v>
       </c>
@@ -71857,7 +71857,7 @@
       </c>
       <c r="L282"/>
     </row>
-    <row r="283" spans="1:12" hidden="1">
+    <row r="283" spans="1:12">
       <c r="A283" t="s">
         <v>3747</v>
       </c>
@@ -71890,7 +71890,7 @@
       </c>
       <c r="L283"/>
     </row>
-    <row r="284" spans="1:12" hidden="1">
+    <row r="284" spans="1:12">
       <c r="A284" t="s">
         <v>3750</v>
       </c>
@@ -71923,7 +71923,7 @@
       </c>
       <c r="L284"/>
     </row>
-    <row r="285" spans="1:12" hidden="1">
+    <row r="285" spans="1:12">
       <c r="A285" t="s">
         <v>3753</v>
       </c>
@@ -71956,7 +71956,7 @@
       </c>
       <c r="L285"/>
     </row>
-    <row r="286" spans="1:12" hidden="1">
+    <row r="286" spans="1:12">
       <c r="A286" t="s">
         <v>3756</v>
       </c>
@@ -71989,7 +71989,7 @@
       </c>
       <c r="L286"/>
     </row>
-    <row r="287" spans="1:12" hidden="1">
+    <row r="287" spans="1:12">
       <c r="A287" t="s">
         <v>3759</v>
       </c>
@@ -72022,7 +72022,7 @@
       </c>
       <c r="L287"/>
     </row>
-    <row r="288" spans="1:12" hidden="1">
+    <row r="288" spans="1:12">
       <c r="A288" t="s">
         <v>5870</v>
       </c>
@@ -72055,7 +72055,7 @@
       </c>
       <c r="L288"/>
     </row>
-    <row r="289" spans="1:12" hidden="1">
+    <row r="289" spans="1:12">
       <c r="A289" t="s">
         <v>5871</v>
       </c>
@@ -72088,7 +72088,7 @@
       </c>
       <c r="L289"/>
     </row>
-    <row r="290" spans="1:12" hidden="1">
+    <row r="290" spans="1:12">
       <c r="A290" t="s">
         <v>3766</v>
       </c>
@@ -72121,7 +72121,7 @@
       </c>
       <c r="L290"/>
     </row>
-    <row r="291" spans="1:12" hidden="1">
+    <row r="291" spans="1:12">
       <c r="A291" t="s">
         <v>3769</v>
       </c>
@@ -72154,7 +72154,7 @@
       </c>
       <c r="L291"/>
     </row>
-    <row r="292" spans="1:12" hidden="1">
+    <row r="292" spans="1:12">
       <c r="A292" t="s">
         <v>3772</v>
       </c>
@@ -72187,7 +72187,7 @@
       </c>
       <c r="L292"/>
     </row>
-    <row r="293" spans="1:12" hidden="1">
+    <row r="293" spans="1:12">
       <c r="A293" t="s">
         <v>3775</v>
       </c>
@@ -72220,7 +72220,7 @@
       </c>
       <c r="L293"/>
     </row>
-    <row r="294" spans="1:12" hidden="1">
+    <row r="294" spans="1:12">
       <c r="A294" t="s">
         <v>3778</v>
       </c>
@@ -72253,7 +72253,7 @@
       </c>
       <c r="L294"/>
     </row>
-    <row r="295" spans="1:12" hidden="1">
+    <row r="295" spans="1:12">
       <c r="A295" t="s">
         <v>3781</v>
       </c>
@@ -72286,7 +72286,7 @@
       </c>
       <c r="L295"/>
     </row>
-    <row r="296" spans="1:12" hidden="1">
+    <row r="296" spans="1:12">
       <c r="A296" t="s">
         <v>3784</v>
       </c>
@@ -72319,7 +72319,7 @@
       </c>
       <c r="L296"/>
     </row>
-    <row r="297" spans="1:12" hidden="1">
+    <row r="297" spans="1:12">
       <c r="A297" t="s">
         <v>3787</v>
       </c>
@@ -72352,7 +72352,7 @@
       </c>
       <c r="L297"/>
     </row>
-    <row r="298" spans="1:12" hidden="1">
+    <row r="298" spans="1:12">
       <c r="A298" t="s">
         <v>5872</v>
       </c>
@@ -72385,7 +72385,7 @@
       </c>
       <c r="L298"/>
     </row>
-    <row r="299" spans="1:12" hidden="1">
+    <row r="299" spans="1:12">
       <c r="A299" t="s">
         <v>5873</v>
       </c>
@@ -72418,7 +72418,7 @@
       </c>
       <c r="L299"/>
     </row>
-    <row r="300" spans="1:12" hidden="1">
+    <row r="300" spans="1:12">
       <c r="A300" t="s">
         <v>3794</v>
       </c>
@@ -72451,7 +72451,7 @@
       </c>
       <c r="L300"/>
     </row>
-    <row r="301" spans="1:12" hidden="1">
+    <row r="301" spans="1:12">
       <c r="A301" t="s">
         <v>3797</v>
       </c>
@@ -72484,7 +72484,7 @@
       </c>
       <c r="L301"/>
     </row>
-    <row r="302" spans="1:12" hidden="1">
+    <row r="302" spans="1:12">
       <c r="A302" t="s">
         <v>3800</v>
       </c>
@@ -72517,7 +72517,7 @@
       </c>
       <c r="L302"/>
     </row>
-    <row r="303" spans="1:12" hidden="1">
+    <row r="303" spans="1:12">
       <c r="A303" t="s">
         <v>3803</v>
       </c>
@@ -72550,7 +72550,7 @@
       </c>
       <c r="L303"/>
     </row>
-    <row r="304" spans="1:12" hidden="1">
+    <row r="304" spans="1:12">
       <c r="A304" t="s">
         <v>3806</v>
       </c>
@@ -72583,7 +72583,7 @@
       </c>
       <c r="L304"/>
     </row>
-    <row r="305" spans="1:12" hidden="1">
+    <row r="305" spans="1:12">
       <c r="A305" t="s">
         <v>3809</v>
       </c>
@@ -72616,7 +72616,7 @@
       </c>
       <c r="L305"/>
     </row>
-    <row r="306" spans="1:12" hidden="1">
+    <row r="306" spans="1:12">
       <c r="A306" t="s">
         <v>3812</v>
       </c>
@@ -72649,7 +72649,7 @@
       </c>
       <c r="L306"/>
     </row>
-    <row r="307" spans="1:12" hidden="1">
+    <row r="307" spans="1:12">
       <c r="A307" t="s">
         <v>3815</v>
       </c>
@@ -72682,7 +72682,7 @@
       </c>
       <c r="L307"/>
     </row>
-    <row r="308" spans="1:12" hidden="1">
+    <row r="308" spans="1:12">
       <c r="A308" t="s">
         <v>5874</v>
       </c>
@@ -72715,7 +72715,7 @@
       </c>
       <c r="L308"/>
     </row>
-    <row r="309" spans="1:12" hidden="1">
+    <row r="309" spans="1:12">
       <c r="A309" t="s">
         <v>3820</v>
       </c>
@@ -72748,7 +72748,7 @@
       </c>
       <c r="L309"/>
     </row>
-    <row r="310" spans="1:12" hidden="1">
+    <row r="310" spans="1:12">
       <c r="A310" t="s">
         <v>3823</v>
       </c>
@@ -72781,7 +72781,7 @@
       </c>
       <c r="L310"/>
     </row>
-    <row r="311" spans="1:12" hidden="1">
+    <row r="311" spans="1:12">
       <c r="A311" t="s">
         <v>3827</v>
       </c>
@@ -72814,7 +72814,7 @@
       </c>
       <c r="L311"/>
     </row>
-    <row r="312" spans="1:12" hidden="1">
+    <row r="312" spans="1:12">
       <c r="A312" t="s">
         <v>3830</v>
       </c>
@@ -72847,7 +72847,7 @@
       </c>
       <c r="L312"/>
     </row>
-    <row r="313" spans="1:12" hidden="1">
+    <row r="313" spans="1:12">
       <c r="A313" t="s">
         <v>3833</v>
       </c>
@@ -72913,7 +72913,7 @@
       </c>
       <c r="L314"/>
     </row>
-    <row r="315" spans="1:12" hidden="1">
+    <row r="315" spans="1:12">
       <c r="A315" t="s">
         <v>3841</v>
       </c>
@@ -72946,7 +72946,7 @@
       </c>
       <c r="L315"/>
     </row>
-    <row r="316" spans="1:12" hidden="1">
+    <row r="316" spans="1:12">
       <c r="A316" t="s">
         <v>3845</v>
       </c>
@@ -72979,7 +72979,7 @@
       </c>
       <c r="L316"/>
     </row>
-    <row r="317" spans="1:12" hidden="1">
+    <row r="317" spans="1:12">
       <c r="A317" t="s">
         <v>3849</v>
       </c>
@@ -73012,7 +73012,7 @@
       </c>
       <c r="L317"/>
     </row>
-    <row r="318" spans="1:12" hidden="1">
+    <row r="318" spans="1:12">
       <c r="A318" t="s">
         <v>3853</v>
       </c>
@@ -73045,7 +73045,7 @@
       </c>
       <c r="L318"/>
     </row>
-    <row r="319" spans="1:12" hidden="1">
+    <row r="319" spans="1:12">
       <c r="A319" t="s">
         <v>3856</v>
       </c>
@@ -73078,7 +73078,7 @@
       </c>
       <c r="L319"/>
     </row>
-    <row r="320" spans="1:12" hidden="1">
+    <row r="320" spans="1:12">
       <c r="A320" t="s">
         <v>3859</v>
       </c>
@@ -73111,7 +73111,7 @@
       </c>
       <c r="L320"/>
     </row>
-    <row r="321" spans="1:12" hidden="1">
+    <row r="321" spans="1:12">
       <c r="A321" t="s">
         <v>3862</v>
       </c>
@@ -73144,7 +73144,7 @@
       </c>
       <c r="L321"/>
     </row>
-    <row r="322" spans="1:12" hidden="1">
+    <row r="322" spans="1:12">
       <c r="A322" t="s">
         <v>3865</v>
       </c>
@@ -73177,7 +73177,7 @@
       </c>
       <c r="L322"/>
     </row>
-    <row r="323" spans="1:12" hidden="1">
+    <row r="323" spans="1:12">
       <c r="A323" t="s">
         <v>5875</v>
       </c>
@@ -73210,7 +73210,7 @@
       </c>
       <c r="L323"/>
     </row>
-    <row r="324" spans="1:12" hidden="1">
+    <row r="324" spans="1:12">
       <c r="A324" t="s">
         <v>5876</v>
       </c>
@@ -73243,7 +73243,7 @@
       </c>
       <c r="L324"/>
     </row>
-    <row r="325" spans="1:12" hidden="1">
+    <row r="325" spans="1:12">
       <c r="A325" t="s">
         <v>3872</v>
       </c>
@@ -73276,7 +73276,7 @@
       </c>
       <c r="L325"/>
     </row>
-    <row r="326" spans="1:12" hidden="1">
+    <row r="326" spans="1:12">
       <c r="A326" t="s">
         <v>3875</v>
       </c>
@@ -73309,7 +73309,7 @@
       </c>
       <c r="L326"/>
     </row>
-    <row r="327" spans="1:12" hidden="1">
+    <row r="327" spans="1:12">
       <c r="A327" t="s">
         <v>3878</v>
       </c>
@@ -73342,7 +73342,7 @@
       </c>
       <c r="L327"/>
     </row>
-    <row r="328" spans="1:12" hidden="1">
+    <row r="328" spans="1:12">
       <c r="A328" t="s">
         <v>3881</v>
       </c>
@@ -73375,7 +73375,7 @@
       </c>
       <c r="L328"/>
     </row>
-    <row r="329" spans="1:12" hidden="1">
+    <row r="329" spans="1:12">
       <c r="A329" t="s">
         <v>3884</v>
       </c>
@@ -73408,7 +73408,7 @@
       </c>
       <c r="L329"/>
     </row>
-    <row r="330" spans="1:12" hidden="1">
+    <row r="330" spans="1:12">
       <c r="A330" t="s">
         <v>3887</v>
       </c>
@@ -73441,7 +73441,7 @@
       </c>
       <c r="L330"/>
     </row>
-    <row r="331" spans="1:12" hidden="1">
+    <row r="331" spans="1:12">
       <c r="A331" t="s">
         <v>3891</v>
       </c>
@@ -73474,7 +73474,7 @@
       </c>
       <c r="L331"/>
     </row>
-    <row r="332" spans="1:12" hidden="1">
+    <row r="332" spans="1:12">
       <c r="A332" t="s">
         <v>3894</v>
       </c>
@@ -73507,7 +73507,7 @@
       </c>
       <c r="L332"/>
     </row>
-    <row r="333" spans="1:12" hidden="1">
+    <row r="333" spans="1:12">
       <c r="A333" t="s">
         <v>3897</v>
       </c>
@@ -73540,7 +73540,7 @@
       </c>
       <c r="L333"/>
     </row>
-    <row r="334" spans="1:12" hidden="1">
+    <row r="334" spans="1:12">
       <c r="A334" t="s">
         <v>3900</v>
       </c>
@@ -73573,7 +73573,7 @@
       </c>
       <c r="L334"/>
     </row>
-    <row r="335" spans="1:12" hidden="1">
+    <row r="335" spans="1:12">
       <c r="A335" t="s">
         <v>3903</v>
       </c>
@@ -73606,7 +73606,7 @@
       </c>
       <c r="L335"/>
     </row>
-    <row r="336" spans="1:12" hidden="1">
+    <row r="336" spans="1:12">
       <c r="A336" t="s">
         <v>3906</v>
       </c>
@@ -73639,7 +73639,7 @@
       </c>
       <c r="L336"/>
     </row>
-    <row r="337" spans="1:12" hidden="1">
+    <row r="337" spans="1:12">
       <c r="A337" t="s">
         <v>3909</v>
       </c>
@@ -73672,7 +73672,7 @@
       </c>
       <c r="L337"/>
     </row>
-    <row r="338" spans="1:12" hidden="1">
+    <row r="338" spans="1:12">
       <c r="A338" t="s">
         <v>3912</v>
       </c>
@@ -73705,7 +73705,7 @@
       </c>
       <c r="L338"/>
     </row>
-    <row r="339" spans="1:12" hidden="1">
+    <row r="339" spans="1:12">
       <c r="A339" t="s">
         <v>3915</v>
       </c>
@@ -73738,7 +73738,7 @@
       </c>
       <c r="L339"/>
     </row>
-    <row r="340" spans="1:12" hidden="1">
+    <row r="340" spans="1:12">
       <c r="A340" t="s">
         <v>5877</v>
       </c>
@@ -73771,7 +73771,7 @@
       </c>
       <c r="L340"/>
     </row>
-    <row r="341" spans="1:12" hidden="1">
+    <row r="341" spans="1:12">
       <c r="A341" t="s">
         <v>5878</v>
       </c>
@@ -73804,7 +73804,7 @@
       </c>
       <c r="L341"/>
     </row>
-    <row r="342" spans="1:12" hidden="1">
+    <row r="342" spans="1:12">
       <c r="A342" t="s">
         <v>3922</v>
       </c>
@@ -73837,7 +73837,7 @@
       </c>
       <c r="L342"/>
     </row>
-    <row r="343" spans="1:12" hidden="1">
+    <row r="343" spans="1:12">
       <c r="A343" t="s">
         <v>3925</v>
       </c>
@@ -73870,7 +73870,7 @@
       </c>
       <c r="L343"/>
     </row>
-    <row r="344" spans="1:12" hidden="1">
+    <row r="344" spans="1:12">
       <c r="A344" t="s">
         <v>3928</v>
       </c>
@@ -73903,7 +73903,7 @@
       </c>
       <c r="L344"/>
     </row>
-    <row r="345" spans="1:12" hidden="1">
+    <row r="345" spans="1:12">
       <c r="A345" t="s">
         <v>3931</v>
       </c>
@@ -73936,7 +73936,7 @@
       </c>
       <c r="L345"/>
     </row>
-    <row r="346" spans="1:12" hidden="1">
+    <row r="346" spans="1:12">
       <c r="A346" t="s">
         <v>3934</v>
       </c>
@@ -73969,7 +73969,7 @@
       </c>
       <c r="L346"/>
     </row>
-    <row r="347" spans="1:12" hidden="1">
+    <row r="347" spans="1:12">
       <c r="A347" t="s">
         <v>3937</v>
       </c>
@@ -74002,7 +74002,7 @@
       </c>
       <c r="L347"/>
     </row>
-    <row r="348" spans="1:12" hidden="1">
+    <row r="348" spans="1:12">
       <c r="A348" t="s">
         <v>3940</v>
       </c>
@@ -74035,7 +74035,7 @@
       </c>
       <c r="L348"/>
     </row>
-    <row r="349" spans="1:12" hidden="1">
+    <row r="349" spans="1:12">
       <c r="A349" t="s">
         <v>3943</v>
       </c>
@@ -74068,7 +74068,7 @@
       </c>
       <c r="L349"/>
     </row>
-    <row r="350" spans="1:12" hidden="1">
+    <row r="350" spans="1:12">
       <c r="A350" t="s">
         <v>5879</v>
       </c>
@@ -74101,7 +74101,7 @@
       </c>
       <c r="L350"/>
     </row>
-    <row r="351" spans="1:12" hidden="1">
+    <row r="351" spans="1:12">
       <c r="A351" t="s">
         <v>5880</v>
       </c>
@@ -74134,7 +74134,7 @@
       </c>
       <c r="L351"/>
     </row>
-    <row r="352" spans="1:12" hidden="1">
+    <row r="352" spans="1:12">
       <c r="A352" t="s">
         <v>3950</v>
       </c>
@@ -74167,7 +74167,7 @@
       </c>
       <c r="L352"/>
     </row>
-    <row r="353" spans="1:12" hidden="1">
+    <row r="353" spans="1:12">
       <c r="A353" t="s">
         <v>3953</v>
       </c>
@@ -74200,7 +74200,7 @@
       </c>
       <c r="L353"/>
     </row>
-    <row r="354" spans="1:12" hidden="1">
+    <row r="354" spans="1:12">
       <c r="A354" t="s">
         <v>3956</v>
       </c>
@@ -74233,7 +74233,7 @@
       </c>
       <c r="L354"/>
     </row>
-    <row r="355" spans="1:12" hidden="1">
+    <row r="355" spans="1:12">
       <c r="A355" t="s">
         <v>3959</v>
       </c>
@@ -74266,7 +74266,7 @@
       </c>
       <c r="L355"/>
     </row>
-    <row r="356" spans="1:12" hidden="1">
+    <row r="356" spans="1:12">
       <c r="A356" t="s">
         <v>3962</v>
       </c>
@@ -74299,7 +74299,7 @@
       </c>
       <c r="L356"/>
     </row>
-    <row r="357" spans="1:12" hidden="1">
+    <row r="357" spans="1:12">
       <c r="A357" t="s">
         <v>3965</v>
       </c>
@@ -74332,7 +74332,7 @@
       </c>
       <c r="L357"/>
     </row>
-    <row r="358" spans="1:12" hidden="1">
+    <row r="358" spans="1:12">
       <c r="A358" t="s">
         <v>3968</v>
       </c>
@@ -74365,7 +74365,7 @@
       </c>
       <c r="L358"/>
     </row>
-    <row r="359" spans="1:12" hidden="1">
+    <row r="359" spans="1:12">
       <c r="A359" t="s">
         <v>3971</v>
       </c>
@@ -74398,7 +74398,7 @@
       </c>
       <c r="L359"/>
     </row>
-    <row r="360" spans="1:12" hidden="1">
+    <row r="360" spans="1:12">
       <c r="A360" t="s">
         <v>5881</v>
       </c>
@@ -74431,7 +74431,7 @@
       </c>
       <c r="L360"/>
     </row>
-    <row r="361" spans="1:12" hidden="1">
+    <row r="361" spans="1:12">
       <c r="A361" t="s">
         <v>5882</v>
       </c>
@@ -74464,7 +74464,7 @@
       </c>
       <c r="L361"/>
     </row>
-    <row r="362" spans="1:12" hidden="1">
+    <row r="362" spans="1:12">
       <c r="A362" t="s">
         <v>3978</v>
       </c>
@@ -74497,7 +74497,7 @@
       </c>
       <c r="L362"/>
     </row>
-    <row r="363" spans="1:12" hidden="1">
+    <row r="363" spans="1:12">
       <c r="A363" t="s">
         <v>3981</v>
       </c>
@@ -74530,7 +74530,7 @@
       </c>
       <c r="L363"/>
     </row>
-    <row r="364" spans="1:12" hidden="1">
+    <row r="364" spans="1:12">
       <c r="A364" t="s">
         <v>3982</v>
       </c>
@@ -74563,7 +74563,7 @@
       </c>
       <c r="L364"/>
     </row>
-    <row r="365" spans="1:12" hidden="1">
+    <row r="365" spans="1:12">
       <c r="A365" t="s">
         <v>3983</v>
       </c>
@@ -74596,7 +74596,7 @@
       </c>
       <c r="L365"/>
     </row>
-    <row r="366" spans="1:12" hidden="1">
+    <row r="366" spans="1:12">
       <c r="A366" t="s">
         <v>3986</v>
       </c>
@@ -74629,7 +74629,7 @@
       </c>
       <c r="L366"/>
     </row>
-    <row r="367" spans="1:12" hidden="1">
+    <row r="367" spans="1:12">
       <c r="A367" t="s">
         <v>3990</v>
       </c>
@@ -74662,7 +74662,7 @@
       </c>
       <c r="L367"/>
     </row>
-    <row r="368" spans="1:12" hidden="1">
+    <row r="368" spans="1:12">
       <c r="A368" t="s">
         <v>3993</v>
       </c>
@@ -74695,7 +74695,7 @@
       </c>
       <c r="L368"/>
     </row>
-    <row r="369" spans="1:12" hidden="1">
+    <row r="369" spans="1:12">
       <c r="A369" t="s">
         <v>3996</v>
       </c>
@@ -74728,7 +74728,7 @@
       </c>
       <c r="L369"/>
     </row>
-    <row r="370" spans="1:12" hidden="1">
+    <row r="370" spans="1:12">
       <c r="A370" t="s">
         <v>5883</v>
       </c>
@@ -74761,7 +74761,7 @@
       </c>
       <c r="L370"/>
     </row>
-    <row r="371" spans="1:12" hidden="1">
+    <row r="371" spans="1:12">
       <c r="A371" t="s">
         <v>5884</v>
       </c>
@@ -74794,7 +74794,7 @@
       </c>
       <c r="L371"/>
     </row>
-    <row r="372" spans="1:12" hidden="1">
+    <row r="372" spans="1:12">
       <c r="A372" t="s">
         <v>4003</v>
       </c>
@@ -74827,7 +74827,7 @@
       </c>
       <c r="L372"/>
     </row>
-    <row r="373" spans="1:12" hidden="1">
+    <row r="373" spans="1:12">
       <c r="A373" t="s">
         <v>4008</v>
       </c>
@@ -74861,7 +74861,7 @@
       <c r="K373" s="4"/>
       <c r="L373"/>
     </row>
-    <row r="374" spans="1:12" hidden="1">
+    <row r="374" spans="1:12">
       <c r="A374" t="s">
         <v>4013</v>
       </c>
@@ -74963,23 +74963,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L376">
-    <filterColumn colId="8">
-      <filters>
-        <filter val="Department of Jobs and Small Business of Australia"/>
-        <filter val="Melbourne Institute"/>
-        <filter val="Reserve Bank of Australia (RBA)"/>
-        <filter val="World Steel Association (worldsteel)"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:L376" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -75096,7 +75087,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
